--- a/app_v1/crawl_results/gemini_results.xlsx
+++ b/app_v1/crawl_results/gemini_results.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,357 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>website</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>emails</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>phone_numbers</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>addresses</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>social_links</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>raw_result</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>addresse</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://balaioarquitetura.com.br</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['contato@balaioarquitetura.com.br', 'parceiros@balaioarquitetura.com.br', 'portfolio@balaioarquitetura.com.br']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['+55 11 96229-2868', '+55 11 98051-3097']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['Rua da Consolação, 222 – Consolação, São Paulo/SP', 'Rua da Consolação, 222 - Consolação, São Paulo/SP']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['https://www.instagram.com/balaioarquitetura', 'https://www.facebook.com/balaioarquitetura', 'https://www.linkedin.com/company/balaio-arquitetura', 'https://br.pinterest.com/balaioarquitetura/', 'https://open.spotify.com/playlist/3lKMAsynv8BtcFBTA2raUq?si=rlzOLWkYT52pQR0JvPV7ig', 'https://www.youtube.com/channel/UC5u2gq6i5QS3-DTliSQJH6Q', 'https://api.whatsapp.com/send?phone=5511962292868&amp;text=Ol%C3%A1,%20Balaio!%20Quero%20conversar%20com%20voc%C3%AAs.', 'https://api.whatsapp.com/send?phone=5511962292868&amp;text=Ol%C3%A1%20Balaio,%20quero%20conversar%20com%20voc%C3%AAs!', 'https://web.whatsapp.com/send?phone=5511962292868&amp;text=Olá, Balaio! Quero conversar com vocês!']</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.saopauloarquitetos.com</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['pr@saopauloarquitetos.com', 'tc@saopauloarquitetos.com', 'mafe@saopauloarquitetos.com']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['55 11 5081-7299']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['rua Afonso Braz, 864 cj.111 - Vila Nova Conceição']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['https://www.instagram.com/saopauloarquitetos/']</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://marcelawandenkolk.com.br</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['contato@mwarq.com.br']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['+55 11 3525-7236', '+551135257236']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['Alameda Lorena, 800 – Cj. 1302, Jardim Paulista, São Paulo – SP, 01424-004']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['https://wa.me/+5511971013905', 'https://instagram.com/arquitetura.mw', 'https://br.pinterest.com/mwarquitetura/', 'https://facebook.com/marcelawarq', 'https://api.whatsapp.com/send?phone=5511971013905']</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://marinacarvalho.com/</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['+55 (11) 99126-1924']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['Alameda Lorena, 427 - CJ 56 • Jardim Paulista, São Paulo • SP, CEP: 01424-000']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['https://www.instagram.com/arqmarinacarvalho/', 'https://www.linkedin.com/company/18840690/admin/feed/posts/?feedType=following', 'https://www.youtube.com/channel/UCNs6L8sh4pKXttA0JSiffiw', 'https://br.pinterest.com/marinacarvalho0/marina-carvalho-arquitetura/']</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Invalid JSON structure</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">```json
-{
-    "website": "https://archello.com",
-    "emails": [],
-    "phone_numbers": [],
-    "addresse": [],
-    "social_links": []
-}
-```
-**Explication:**
-L'extrait Markdown fourni est très limité. Il indique que le site web `archello.com` est en cours de vérification de sécurité.  Il ne contient aucune information de contact (email, numéro de téléphone, adresse) ni de liens vers des réseaux sociaux ou des API.
-Par conséquent, le JSON résultant ne contient que l'URL du site web et des listes vides pour les autres champs.
-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/arquitetataynadurso/?hl=fr</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['SP - Zona Sul', 'Brooklin', 'W Residences', 'Cotia', 'São Paulo']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['https://www.threads.com/', 'https://developers.facebook.com/docs/instagram', 'https://www.facebook.com/help/instagram/261704639352628?hl=fr', 'https://about.meta.com/', 'https://www.facebook.com/privacy/policy']</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.imoveispro.com.br</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>['contato@imoveispro.com.br']</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['+55 (11) 4248-3000', '+55 (11) 98000-6000']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['Av. Açocê, 308, Moema, São Paulo/SP, CEP 04075-021']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['https://www.facebook.com/imoveisPRO/', 'https://instagram.com/imoveispro', 'https://www.youtube.com/channel/UCAD0WxNIGrLum8BCP2OiMvA/videos', 'https://api.whatsapp.com/send?phone=5511980006000&amp;text=']</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.estudiopiloti.arq.br</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>['ola@estudiopiloti.arq.br']</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['19 Rua Piracuama,\nPompeia, SP, 05017-040,\nBrazil']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['https://www.instagram.com/estudio_piloti/', 'https://www.facebook.com/EstudioPiloti/', 'https://www.pinterest.com/estudiopilotiarquitetura/']</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://bovearquitetura.com.br</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>['contato@bovearquitetura.com.br']</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>['+55 (11) 98322-5918']</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['Escritório: São Paulo – SP']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['https://api.whatsapp.com/send?phone=5511983225918&amp;text=sua%20mensagem', 'https://api.whatsapp.com/send?phone=5511983225918&amp;text=Gostaria de um orçamento', 'https://api.whatsapp.com/send?phone=5511983225918&amp;text=Acessei Seu Site e Gostaria de um Orçamento']</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['https://www.instagram.com/saopauloarquitetos/']</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>